--- a/1/1/1/3/Base 2018 2018 a 2021 - Trimestral.xlsx
+++ b/1/1/1/3/Base 2018 2018 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Serie</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -431,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -737,6 +740,26 @@
         <v>120.44</v>
       </c>
     </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>110.45</v>
+      </c>
+      <c r="C16">
+        <v>108.62</v>
+      </c>
+      <c r="D16">
+        <v>112.15</v>
+      </c>
+      <c r="E16">
+        <v>108.45</v>
+      </c>
+      <c r="F16">
+        <v>119.48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
